--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc208_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc208_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -918,10 +942,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -965,28 +989,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="3">
+      <c r="A29" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="3">
+      <c r="B29" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="3">
+      <c r="C29" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="3">
+      <c r="D29" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="3">
+      <c r="E29" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="3">
+      <c r="F29" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="3">
+      <c r="G29" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="3">
+      <c r="H29" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1011,28 +1035,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="3">
+      <c r="B31" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="3">
+      <c r="C31" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="3">
+      <c r="D31" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="3">
+      <c r="E31" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="3">
+      <c r="F31" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="3">
+      <c r="G31" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="3">
+      <c r="H31" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="3">
+      <c r="I31" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1932,10 +1956,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J62" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="K62" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1979,28 +2003,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="3">
+      <c r="A64" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="3">
+      <c r="B64" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="3">
+      <c r="C64" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D64" t="s" s="3">
+      <c r="D64" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="3">
+      <c r="E64" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="3">
+      <c r="F64" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="3">
+      <c r="G64" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="3">
+      <c r="H64" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2025,28 +2049,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="3">
+      <c r="B66" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="3">
+      <c r="C66" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="3">
+      <c r="D66" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="3">
+      <c r="F66" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="3">
+      <c r="G66" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="3">
+      <c r="H66" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="3">
+      <c r="I66" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2801,10 +2825,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="3" t="s">
+      <c r="J92" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K92" s="3" t="s">
+      <c r="K92" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2848,28 +2872,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="3">
+      <c r="A94" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="3">
+      <c r="B94" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="3">
+      <c r="C94" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D94" t="s" s="3">
+      <c r="D94" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="3">
+      <c r="E94" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="3">
+      <c r="F94" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="3">
+      <c r="G94" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="3">
+      <c r="H94" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2894,28 +2918,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="3">
+      <c r="B96" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="3">
+      <c r="C96" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="3">
+      <c r="D96" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="3">
+      <c r="E96" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="3">
+      <c r="F96" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="3">
+      <c r="G96" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="3">
+      <c r="H96" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="3">
+      <c r="I96" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3554,10 +3578,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="3" t="s">
+      <c r="J118" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K118" s="3" t="s">
+      <c r="K118" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3601,28 +3625,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="3">
+      <c r="A120" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="3">
+      <c r="B120" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="3">
+      <c r="C120" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D120" t="s" s="3">
+      <c r="D120" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="3">
+      <c r="E120" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="3">
+      <c r="F120" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="3">
+      <c r="G120" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="3">
+      <c r="H120" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3647,28 +3671,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="3">
+      <c r="B122" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="3">
+      <c r="C122" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="3">
+      <c r="D122" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="3">
+      <c r="E122" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="3">
+      <c r="F122" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="3">
+      <c r="G122" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="3">
+      <c r="H122" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="3">
+      <c r="I122" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3785,10 +3809,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="3" t="s">
+      <c r="J126" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K126" s="3" t="s">
+      <c r="K126" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
